--- a/DH_Providers_Consumers.xlsx
+++ b/DH_Providers_Consumers.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahman/Documents/Workspace/Datahubs/ena-datahub-setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB193D34-3FCC-3F4F-B078-57D053B9FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED24AE8-4DA4-9446-85F9-A97E181F8451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37980" yWindow="5880" windowWidth="27640" windowHeight="16440" xr2:uid="{0941FAE9-0395-C64B-B118-1F14C97292DE}"/>
+    <workbookView xWindow="37980" yWindow="5880" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{0941FAE9-0395-C64B-B118-1F14C97292DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_Providers" sheetId="1" r:id="rId1"/>
-    <sheet name="Data_Consumers" sheetId="2" r:id="rId2"/>
+    <sheet name="General" sheetId="3" r:id="rId1"/>
+    <sheet name="Data_Providers" sheetId="1" r:id="rId2"/>
+    <sheet name="Data_Consumers" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -50,13 +51,52 @@
   </si>
   <si>
     <t>Webin-Account</t>
+  </si>
+  <si>
+    <t># Field</t>
+  </si>
+  <si>
+    <t>Coordinator name:</t>
+  </si>
+  <si>
+    <t>Data hub short description:</t>
+  </si>
+  <si>
+    <t>Data hub public description (abstract):</t>
+  </si>
+  <si>
+    <t># Define those who will be providing data to a data hub</t>
+  </si>
+  <si>
+    <t># NOTE: All individuals here must be associated to a Webin account</t>
+  </si>
+  <si>
+    <t># Define those who will be accessing any data hub-shared data</t>
+  </si>
+  <si>
+    <t># Input</t>
+  </si>
+  <si>
+    <t># General information for a data hub and Coordinator Details</t>
+  </si>
+  <si>
+    <t>Coordinator Affiliation:</t>
+  </si>
+  <si>
+    <t>Coordinator Address:</t>
+  </si>
+  <si>
+    <t>Coordinator Email:</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +117,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,11 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,11 +465,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EEB52E-1B8C-4A4F-B198-B8C5D3D1D4CC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB1DC21-8D9C-5B4A-8590-49E8B15D09B7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,40 +542,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50DC99-B157-4F47-9164-04AD74F4F382}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,23 +592,33 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
